--- a/Output_testing/R1_201907/Country/HKD/MN/INDIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/INDIA_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>42794.144911</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>36.66962566147892</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>48412.395183</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>30.5180477388664</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>43099.15293</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>32.08244885629045</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>18529.223423</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>28.64018735289945</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-23.66756460388947</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>47270.819689</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>40.50561744630949</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>66278.80068499999</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>41.78061415333384</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>33648.526271</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>25.04752529434232</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>14161.492104</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>21.8890871892514</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-33.11930568214046</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1947.466011</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.668752810935762</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>2114.371777</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.332850783033686</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>15658.885151</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>11.6562704334218</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>10126.221265</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>15.65186341519967</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>56.99095161476755</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>4226.166275</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.621335012294687</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>14559.280407</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>9.177831685972675</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>11002.829685</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>8.190363305209555</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>6114.15351</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>9.450504105499975</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>23.18636457133958</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1704.74759</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.460771236406686</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>2677.446496</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.687799987468523</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>4516.336307</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.361902003560681</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>3139.362106</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.852438595609296</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>36.0410347492669</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1302.907842</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.116441114477427</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>7006.5672</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.416776973890784</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>8070.402752</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>6.00750283796136</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2097.308462</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.241760645723604</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-68.98688859337446</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2981.437665</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.554746761173901</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>2349.578237</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.481119463970388</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2624.354209</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.95353513856248</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1619.909659</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.503856479540463</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>22.93515358439478</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>2065.51289</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.769905313747502</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1737.73448</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.095427392461186</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>2258.638468</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.681301097776824</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1423.141515</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.199716560635547</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>17.52255207551618</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>839.517174</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.7193689830930495</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>874.0105150000001</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.5509558971460983</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1260.314814</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.9381619547987764</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>811.866707</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.254883384114156</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>32.32151952131957</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>835.1936009999999</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.7156641817993258</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1050.497682</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.6622093017224244</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1191.823944</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.8871782420221774</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>642.302972</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.9927926840457815</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-10.11024523654764</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>10733.972829</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>9.197771478283247</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>11574.612745</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>7.296366622133989</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>11007.461054</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>8.19381083605357</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>6031.604213</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>9.322909587480648</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-6.236916685878569</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,433 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>174.485827</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>35.82498537554589</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1028.183464</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>70.30884220456059</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>91.856425</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>15.36620333970545</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>101.251325</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>33.36391657822489</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>24.61938507015302</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>184.399562</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>37.86044818360558</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>265.894432</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>18.18228975384423</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>264.974217</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>44.32621559353347</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>93.21292</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>30.71513470952356</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-41.22372989222178</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>5.915234</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.214500771704121</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>54.685163</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>3.739459572068819</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>125.157012</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>20.93689250133516</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>59.516923</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>19.61176956414777</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-7.389052082455949</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>OTHER INORGANIC CHEMICALS; ORGANIC AND INORGANIC COMPOUNDS OF PRECIOUS METALS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>6.387984</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.311564597044441</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>8.343688999999999</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.5705548998256678</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>5.034294</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.8421619421380609</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>7.885751</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>2.59847995589839</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>184.7442871508965</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>14.615774</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.000873473822511</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>8.279108000000001</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.5661387469722187</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>17.83003</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.982696817702718</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>7.522874</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.478906232234462</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-12.61512363314371</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>16.680849</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>3.424869410606566</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>13.660751</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.934144167927207</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>11.272146</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.885661101124363</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>6.249574</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>2.059333698452274</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>4.006382599494707</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>15.648763</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.212964143044028</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>22.899074</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.56587558239174</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>25.216828</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>4.218397424354126</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>3.939034</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.297974142805455</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-74.10200172901671</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>11.928026</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>2.449031903371333</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>9.396623999999999</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.6425562919494561</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>7.016549</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.173763497512634</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>3.794962</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.250500135040539</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-1.32947834101862</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>8.534952000000001</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.752374595909077</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>5.282568</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.3612305127938347</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>8.949904999999999</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.497184982988904</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>3.607746</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.188809495376229</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-46.95460815030429</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>11.116761</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>2.282465040833596</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>10.841398</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.7413522663488769</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>1.3835</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.2314388168327092</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>2.460603</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.8108076928783884</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>115.8315768422105</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>37.336926</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>7.665922504512867</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>34.915176</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>2.38755600131735</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>39.091272</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>6.539383982772401</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>14.033825</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>4.624367795418054</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-42.18599164022249</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1726,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>42794.099387</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>36.8232670858393</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>48411.683641</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>30.80154361286488</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>43099.125959</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>32.22582767929256</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>18529.223423</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>28.77516446742065</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-23.6675640661683</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>47259.702928</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>40.66580879708432</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>66267.95928700001</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>42.16245510588738</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>33647.142771</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>25.15844580862954</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>14159.031501</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>21.98842611152991</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-33.12732587457045</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1946.853022</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.67521900993101</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>2113.282464</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.344558938786249</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>15658.442404</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>11.7080394418546</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>10125.712378</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>15.72483813137445</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>56.98710178683377</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>4051.680448</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.486371098359879</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>13531.096943</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>8.609051395740885</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>10910.97326</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>8.158289437809453</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>6012.902185</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>9.337803606227691</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>23.16251602416639</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1704.74759</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.466893256774098</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2677.446496</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.703503758084807</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>4516.336307</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.376928704066263</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>3139.362106</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.875307446010177</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>36.0410347492669</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1299.674426</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.118337789526452</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>7003.73265</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.456068462141275</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>8067.645528</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>6.032292970633957</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2097.301612</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.257027963091794</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-68.97916728677224</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2975.499322</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.560343781437873</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>2343.138102</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.490802736275743</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2615.828608</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.955892145937328</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1618.382368</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.513284974078737</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>23.34626230005481</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>2063.959698</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.775986416411184</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1736.564117</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.104874926122417</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>2256.201382</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.686993769091291</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1421.904971</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.208163205953912</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>17.60977678161759</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>839.517174</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.7223838231011355</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>874.0105150000001</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.55608214734915</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1260.314814</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.9423552592751003</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>811.866707</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.260797470365103</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>32.32151952131957</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>835.164571</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.7186385155684734</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1050.465948</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.6683504947088659</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1191.808077</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.8911318005086097</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>642.302972</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.997471574241543</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-10.10824912445658</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>10443.937253</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>8.986750425966283</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>11163.533797</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>7.102708422038344</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>10517.124297</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>7.863802982901295</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>5835.120176</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.061715049706027</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-5.149409165137609</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2184,441 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>62502.272011</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>67.3714704545136</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>71276.88958</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>66.35843847843074</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>71516.799876</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>77.40196730614814</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>34693.625079</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>76.90188863774044</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-17.46483877065185</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>21282.208448</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>22.94018491694014</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>25926.923908</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>24.1378404027149</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>8637.200181</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>9.347961418653602</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>4982.674881</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>11.04459703891437</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-8.965528373223785</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>835.170688</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.9002341118282103</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>892.006351</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.8304535862043574</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1127.54563</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.220332147701958</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>950.986338</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>2.107956297284012</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>54.7677309195548</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>1713.196827</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1.846662300414994</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>1907.968658</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.776309566210269</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>4026.459921</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>4.35780012116209</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>609.307512</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>1.35059101858817</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-65.86412731025453</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1711.538573</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.844874861226425</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1526.998109</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.421627832946138</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1102.617073</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.193352202328997</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>374.727918</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.8306218953444386</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-47.23044500604698</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>IRON AND STEEL BARS, RODS, ANGLES, SHAPES AND SECTIONS (INCLUDING SHEET PILING)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>58.82071</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.06340309877345064</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>779.980464</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.7261580287763431</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>568.104651</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.6148543796620465</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>319.547319</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.7083085807340728</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>39.59627745087937</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WOOD IN THE ROUGH OR ROUGHLY SQUARED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>128.493149</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.1196264984774092</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>13.68165</v>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>232.182682</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.5146561281537478</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>258.704441</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.2788586405341476</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>306.369097</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.285228143298097</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>331.93867</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.3592541350778252</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>227.224438</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.5036656846051565</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>28.1351591667333</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>186.985015</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.2015519597638341</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>169.182404</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.1575079975237468</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>305.590891</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.3307381789348826</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>183.806198</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.4074248147126715</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-28.76766432598439</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>63.442414</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.06838485358759097</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>94.93713200000001</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.08838600941010168</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>77.249548</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.08360646727870827</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>178.820902</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.3963744077014356</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>181.2992163979658</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>4160.271578</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>4.484374802417608</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>4402.196357</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>4.09842345600789</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>4689.429676</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>5.075326120513967</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>2361.235922</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>5.233915496221483</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-15.62640251284105</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
